--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/金属产品制造业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/金属产品制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,617 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6415187.3</v>
+        <v>40146107.5858128</v>
       </c>
       <c r="C2" t="n">
-        <v>504248.98</v>
+        <v>9568044.43833288</v>
       </c>
       <c r="D2" t="n">
-        <v>42590.18</v>
+        <v>125102.783270859</v>
       </c>
       <c r="E2" t="n">
-        <v>3660110</v>
+        <v>20812019.2356073</v>
       </c>
       <c r="F2" t="n">
-        <v>136174.7</v>
+        <v>303789.662109745</v>
       </c>
       <c r="G2" t="n">
-        <v>1788855</v>
+        <v>3432831.10885625</v>
       </c>
       <c r="H2" t="n">
-        <v>5664359</v>
+        <v>24659557.538301</v>
       </c>
       <c r="I2" t="n">
-        <v>7301837.3</v>
+        <v>54226300.4897123</v>
       </c>
       <c r="J2" t="n">
-        <v>8784424.800000001</v>
+        <v>38125546.43173</v>
       </c>
       <c r="K2" t="n">
-        <v>15079780</v>
+        <v>56294822.163168</v>
       </c>
       <c r="L2" t="n">
-        <v>621704</v>
+        <v>3035767.6900896</v>
       </c>
       <c r="M2" t="n">
-        <v>6854492.3</v>
+        <v>30264336.0417467</v>
       </c>
       <c r="N2" t="n">
-        <v>10850059.35</v>
+        <v>196425248.722249</v>
       </c>
       <c r="O2" t="n">
-        <v>125877336.91</v>
+        <v>873790627.054582</v>
       </c>
       <c r="P2" t="n">
-        <v>13739274.9575419</v>
+        <v>71898387.3578711</v>
       </c>
       <c r="Q2" t="n">
-        <v>6612112.39323647</v>
+        <v>37094466.2623824</v>
       </c>
       <c r="R2" t="n">
-        <v>31388708.1632455</v>
+        <v>191995168.316522</v>
       </c>
       <c r="S2" t="n">
-        <v>157266045.073246</v>
+        <v>1065785795.3711</v>
       </c>
       <c r="T2" t="n">
-        <v>52084702</v>
+        <v>358415328.265993</v>
       </c>
       <c r="U2" t="n">
-        <v>7027358.57415967</v>
+        <v>33518914.9510347</v>
       </c>
       <c r="V2" t="n">
-        <v>4009962.23830743</v>
+        <v>49483399.745234</v>
       </c>
       <c r="W2" t="n">
-        <v>3673830</v>
+        <v>13920673.3931662</v>
       </c>
       <c r="X2" t="n">
-        <v>2414982</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>20554223.3432072</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3480928.16122797</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8221507.00270174</v>
+        <v>57740234.5426108</v>
       </c>
       <c r="C3" t="n">
-        <v>2230749.10679576</v>
+        <v>14495503.9027563</v>
       </c>
       <c r="D3" t="n">
-        <v>36819.8002251245</v>
+        <v>277192.774012425</v>
       </c>
       <c r="E3" t="n">
-        <v>4294499.98723277</v>
+        <v>33844656.700066</v>
       </c>
       <c r="F3" t="n">
-        <v>110439.907640654</v>
+        <v>1732048.73575067</v>
       </c>
       <c r="G3" t="n">
-        <v>3505604.18417501</v>
+        <v>9405019.875619009</v>
       </c>
       <c r="H3" t="n">
-        <v>9019175.730208321</v>
+        <v>20479636.8140662</v>
       </c>
       <c r="I3" t="n">
-        <v>8342400.83365095</v>
+        <v>41230155.2501116</v>
       </c>
       <c r="J3" t="n">
-        <v>6066173.58621741</v>
+        <v>53602126.6692256</v>
       </c>
       <c r="K3" t="n">
-        <v>10665426.8750645</v>
+        <v>61875071.7899878</v>
       </c>
       <c r="L3" t="n">
-        <v>561993.3960558739</v>
+        <v>3131969.81875435</v>
       </c>
       <c r="M3" t="n">
-        <v>8713316.274917571</v>
+        <v>34683172.561532</v>
       </c>
       <c r="N3" t="n">
-        <v>19883597.4593226</v>
+        <v>212647735.277419</v>
       </c>
       <c r="O3" t="n">
-        <v>161963370.441342</v>
+        <v>1161034465.8195</v>
       </c>
       <c r="P3" t="n">
-        <v>22819739.4305168</v>
+        <v>90082332.0899134</v>
       </c>
       <c r="Q3" t="n">
-        <v>8632347.79210984</v>
+        <v>47364671.6055866</v>
       </c>
       <c r="R3" t="n">
-        <v>51690047.5166936</v>
+        <v>262363528.999616</v>
       </c>
       <c r="S3" t="n">
-        <v>213653417.958036</v>
+        <v>1423397994.81911</v>
       </c>
       <c r="T3" t="n">
-        <v>75074276.897663</v>
+        <v>550123644.3987809</v>
       </c>
       <c r="U3" t="n">
-        <v>10050860.2941196</v>
+        <v>42432468.1482673</v>
       </c>
       <c r="V3" t="n">
-        <v>10187099.9999473</v>
+        <v>82484057.1558491</v>
       </c>
       <c r="W3" t="n">
-        <v>1882277.41690105</v>
+        <v>38926324.0557274</v>
       </c>
       <c r="X3" t="n">
-        <v>3355111.98257006</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>21130202.8454583</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5709769.80761793</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18305401.7459867</v>
+        <v>53806849.7502944</v>
       </c>
       <c r="C4" t="n">
-        <v>4792906.50142458</v>
+        <v>21304176.0097792</v>
       </c>
       <c r="D4" t="n">
-        <v>72075.8245994004</v>
+        <v>410539.341030457</v>
       </c>
       <c r="E4" t="n">
-        <v>8184742.07865025</v>
+        <v>45605740.6645205</v>
       </c>
       <c r="F4" t="n">
-        <v>255343.763980609</v>
+        <v>2504524.40174356</v>
       </c>
       <c r="G4" t="n">
-        <v>2357239.12133017</v>
+        <v>18664300.9980466</v>
       </c>
       <c r="H4" t="n">
-        <v>13481185.035594</v>
+        <v>34221408.6716946</v>
       </c>
       <c r="I4" t="n">
-        <v>14044900.9905691</v>
+        <v>59451185.7974483</v>
       </c>
       <c r="J4" t="n">
-        <v>13953820.0930535</v>
+        <v>52074201.7385973</v>
       </c>
       <c r="K4" t="n">
-        <v>23606451.1931995</v>
+        <v>88049549.3206922</v>
       </c>
       <c r="L4" t="n">
-        <v>1001625.30844332</v>
+        <v>5490963.24929663</v>
       </c>
       <c r="M4" t="n">
-        <v>20329665.0868675</v>
+        <v>46303135.6698032</v>
       </c>
       <c r="N4" t="n">
-        <v>49949849.7781133</v>
+        <v>203521954.866737</v>
       </c>
       <c r="O4" t="n">
-        <v>331608324.773416</v>
+        <v>1315310863.85705</v>
       </c>
       <c r="P4" t="n">
-        <v>23954642.1697366</v>
+        <v>90897098.9781587</v>
       </c>
       <c r="Q4" t="n">
-        <v>16768685.4749458</v>
+        <v>44213090.4242017</v>
       </c>
       <c r="R4" t="n">
-        <v>89056488.6705056</v>
+        <v>236543740.68488</v>
       </c>
       <c r="S4" t="n">
-        <v>420664813.443922</v>
+        <v>1551854604.54193</v>
       </c>
       <c r="T4" t="n">
-        <v>150950202.789916</v>
+        <v>588535110.7892621</v>
       </c>
       <c r="U4" t="n">
-        <v>19273043.1500585</v>
+        <v>44230217.6453341</v>
       </c>
       <c r="V4" t="n">
-        <v>29060117.8757648</v>
+        <v>57203333.6371856</v>
       </c>
       <c r="W4" t="n">
-        <v>2760895.20912028</v>
+        <v>57336998.756875</v>
       </c>
       <c r="X4" t="n">
-        <v>7562020.25256755</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>28382896.4129134</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9647327.41831605</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34641206.1210851</v>
+        <v>58220939.6379104</v>
       </c>
       <c r="C5" t="n">
-        <v>6935480.97941355</v>
+        <v>24729059.2054544</v>
       </c>
       <c r="D5" t="n">
-        <v>72806.8887249472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14939191.5657972</v>
-      </c>
+        <v>118480.872446712</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>205821.082985899</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2056537.79160149</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16692183.8007532</v>
-      </c>
+        <v>231833.140147215</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>38943613.4162211</v>
+        <v>37344675.9068955</v>
       </c>
       <c r="J5" t="n">
-        <v>30761166.7520141</v>
+        <v>77522605.53399</v>
       </c>
       <c r="K5" t="n">
-        <v>37649949.588598</v>
+        <v>71480467.03983539</v>
       </c>
       <c r="L5" t="n">
-        <v>2143090.8053785</v>
-      </c>
-      <c r="M5" t="n">
-        <v>22335633.9795461</v>
-      </c>
+        <v>2724334.02399784</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>105610098.664923</v>
+        <v>212593694.541969</v>
       </c>
       <c r="O5" t="n">
-        <v>631857667.825931</v>
+        <v>1135312174.18719</v>
       </c>
       <c r="P5" t="n">
-        <v>43715156.1996042</v>
+        <v>124198053.520108</v>
       </c>
       <c r="Q5" t="n">
-        <v>21390815.3678934</v>
+        <v>51147267.6838385</v>
       </c>
       <c r="R5" t="n">
-        <v>156156841.477884</v>
+        <v>339500167.725509</v>
       </c>
       <c r="S5" t="n">
-        <v>788014509.303815</v>
+        <v>1474812341.9127</v>
       </c>
       <c r="T5" t="n">
-        <v>297229186.728213</v>
+        <v>488611814.669243</v>
       </c>
       <c r="U5" t="n">
-        <v>38750746.601959</v>
+        <v>49928444.6778834</v>
       </c>
       <c r="V5" t="n">
-        <v>52300123.3084275</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9005460.10794137</v>
-      </c>
+        <v>114226401.843679</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>10148152.5150618</v>
+        <v>20424451.0445186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2488087.03767284</v>
+        <v>9311130.02278547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40146107.5858128</v>
+        <v>75618678.0159016</v>
       </c>
       <c r="C6" t="n">
-        <v>9568044.43833288</v>
+        <v>29366409.3096709</v>
       </c>
       <c r="D6" t="n">
-        <v>125102.783270859</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20812019.2356073</v>
-      </c>
+        <v>133937.049832705</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>303789.662109745</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3432831.10885625</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24659557.538301</v>
-      </c>
+        <v>287130.834054342</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>54226300.4897123</v>
+        <v>39594357.6798156</v>
       </c>
       <c r="J6" t="n">
-        <v>38125546.43173</v>
+        <v>82649136.44015341</v>
       </c>
       <c r="K6" t="n">
-        <v>56294822.163168</v>
+        <v>88431920.4158874</v>
       </c>
       <c r="L6" t="n">
-        <v>3035767.6900896</v>
-      </c>
-      <c r="M6" t="n">
-        <v>30264336.0417467</v>
-      </c>
+        <v>3120452.15702096</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>196425248.722249</v>
+        <v>244235807.822339</v>
       </c>
       <c r="O6" t="n">
-        <v>873790627.054582</v>
+        <v>1324592116.09516</v>
       </c>
       <c r="P6" t="n">
-        <v>71898387.3578711</v>
+        <v>132024048.660871</v>
       </c>
       <c r="Q6" t="n">
-        <v>37094466.2623824</v>
+        <v>69440302.8439139</v>
       </c>
       <c r="R6" t="n">
-        <v>191995168.316522</v>
+        <v>403069521.687966</v>
       </c>
       <c r="S6" t="n">
-        <v>1065785795.3711</v>
+        <v>1727661637.78313</v>
       </c>
       <c r="T6" t="n">
-        <v>358415328.265993</v>
+        <v>567026090.3449759</v>
       </c>
       <c r="U6" t="n">
-        <v>33518914.9510347</v>
+        <v>48133103.8262639</v>
       </c>
       <c r="V6" t="n">
-        <v>49483399.745234</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13920673.3931662</v>
-      </c>
+        <v>153472066.356917</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>20554223.3432072</v>
+        <v>22134597.478896</v>
       </c>
       <c r="Y6" t="n">
-        <v>3480928.16122797</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>57740234.5426108</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14495503.9027563</v>
-      </c>
-      <c r="D7" t="n">
-        <v>277192.774012425</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33844656.700066</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1732048.73575067</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9405019.875619009</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20479636.8140662</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41230155.2501116</v>
-      </c>
-      <c r="J7" t="n">
-        <v>53602126.6692256</v>
-      </c>
-      <c r="K7" t="n">
-        <v>61875071.7899878</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3131969.81875435</v>
-      </c>
-      <c r="M7" t="n">
-        <v>34683172.561532</v>
-      </c>
-      <c r="N7" t="n">
-        <v>212647735.277419</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1161034465.8195</v>
-      </c>
-      <c r="P7" t="n">
-        <v>90082332.0899134</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>47364671.6055866</v>
-      </c>
-      <c r="R7" t="n">
-        <v>262363528.999616</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1423397994.81911</v>
-      </c>
-      <c r="T7" t="n">
-        <v>550123644.3987809</v>
-      </c>
-      <c r="U7" t="n">
-        <v>42432468.1482673</v>
-      </c>
-      <c r="V7" t="n">
-        <v>82484057.1558491</v>
-      </c>
-      <c r="W7" t="n">
-        <v>38926324.0557274</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21130202.8454583</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5709769.80761793</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>53806849.7502944</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21304176.0097792</v>
-      </c>
-      <c r="D8" t="n">
-        <v>410539.341030457</v>
-      </c>
-      <c r="E8" t="n">
-        <v>45605740.6645205</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2504524.40174356</v>
-      </c>
-      <c r="G8" t="n">
-        <v>18664300.9980466</v>
-      </c>
-      <c r="H8" t="n">
-        <v>34221408.6716946</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59451185.7974483</v>
-      </c>
-      <c r="J8" t="n">
-        <v>52074201.7385973</v>
-      </c>
-      <c r="K8" t="n">
-        <v>88049549.3206922</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5490963.24929663</v>
-      </c>
-      <c r="M8" t="n">
-        <v>46303135.6698032</v>
-      </c>
-      <c r="N8" t="n">
-        <v>203521954.866737</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1315310863.85705</v>
-      </c>
-      <c r="P8" t="n">
-        <v>90897098.9781587</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>44213090.4242017</v>
-      </c>
-      <c r="R8" t="n">
-        <v>236543740.68488</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1551854604.54193</v>
-      </c>
-      <c r="T8" t="n">
-        <v>588535110.7892621</v>
-      </c>
-      <c r="U8" t="n">
-        <v>44230217.6453341</v>
-      </c>
-      <c r="V8" t="n">
-        <v>57203333.6371856</v>
-      </c>
-      <c r="W8" t="n">
-        <v>57336998.756875</v>
-      </c>
-      <c r="X8" t="n">
-        <v>28382896.4129134</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9647327.41831605</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>58220939.6379104</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24729059.2054544</v>
-      </c>
-      <c r="D9" t="n">
-        <v>118480.872446712</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>231833.140147215</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>37344675.9068955</v>
-      </c>
-      <c r="J9" t="n">
-        <v>77522605.53399</v>
-      </c>
-      <c r="K9" t="n">
-        <v>71480467.03983539</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2724334.02399784</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>212593694.541969</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1135312174.18719</v>
-      </c>
-      <c r="P9" t="n">
-        <v>124198053.520108</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>51147267.6838385</v>
-      </c>
-      <c r="R9" t="n">
-        <v>339500167.725509</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1474812341.9127</v>
-      </c>
-      <c r="T9" t="n">
-        <v>488611814.669243</v>
-      </c>
-      <c r="U9" t="n">
-        <v>49928444.6778834</v>
-      </c>
-      <c r="V9" t="n">
-        <v>114226401.843679</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>20424451.0445186</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9311130.02278547</v>
+        <v>10841072.5460041</v>
       </c>
     </row>
   </sheetData>
